--- a/bukti_pengeluaran.xlsx
+++ b/bukti_pengeluaran.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781D5AA-DD58-4B75-B3A4-8093EAEFE6E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD17B12-3CB1-424A-8748-0812BE74F95F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8A10CD9-41E8-4B23-8D2B-0D92A8DF6FEE}"/>
   </bookViews>
@@ -16,23 +16,26 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="jumlah_bersih">Sheet1!$M$10</definedName>
-    <definedName name="jumlah_kotor">Sheet1!$J$10</definedName>
-    <definedName name="keperluan">Sheet1!$E$15</definedName>
-    <definedName name="kode_rekening">Sheet1!$E$17</definedName>
-    <definedName name="nama_bendahara">Sheet1!$H$31</definedName>
-    <definedName name="nama_kepalasekolah">Sheet1!$B$31</definedName>
-    <definedName name="nip_bendahara">Sheet1!$H$32</definedName>
-    <definedName name="nip_kepalasekolah">Sheet1!$B$32</definedName>
-    <definedName name="nomor">Sheet1!$G$4</definedName>
-    <definedName name="pajak">Sheet1!$L$10</definedName>
-    <definedName name="pembayaran">Sheet1!$E$13</definedName>
-    <definedName name="penerima">Sheet1!$E$8</definedName>
-    <definedName name="ta">Sheet1!$D$4</definedName>
-    <definedName name="tanggal">Sheet1!$H$19</definedName>
-    <definedName name="ttd_penerima">Sheet1!$G$24</definedName>
-    <definedName name="uang_digit">Sheet1!$E$9</definedName>
-    <definedName name="uang_terbilang">Sheet1!$E$10</definedName>
+    <definedName name="judul">Sheet1!$B$4</definedName>
+    <definedName name="jumlah_bersih">Sheet1!$M$11</definedName>
+    <definedName name="jumlah_kotor">Sheet1!$J$11</definedName>
+    <definedName name="keperluan">Sheet1!$E$16</definedName>
+    <definedName name="kode_rekening">Sheet1!$E$18</definedName>
+    <definedName name="nama_bendahara">Sheet1!$I$32</definedName>
+    <definedName name="nama_kepalasekolah">Sheet1!$B$32</definedName>
+    <definedName name="nip_bendahara">Sheet1!$I$33</definedName>
+    <definedName name="nip_kepalasekolah">Sheet1!$B$33</definedName>
+    <definedName name="nomor">Sheet1!$G$5</definedName>
+    <definedName name="pembayaran">Sheet1!$E$14</definedName>
+    <definedName name="penerima">Sheet1!$E$9</definedName>
+    <definedName name="pph_21">Sheet1!$L$12</definedName>
+    <definedName name="pph_23">Sheet1!$L$13</definedName>
+    <definedName name="ppn">Sheet1!$L$11</definedName>
+    <definedName name="ta">Sheet1!$D$5</definedName>
+    <definedName name="tanggal">Sheet1!$H$20</definedName>
+    <definedName name="ttd_penerima">Sheet1!$G$25</definedName>
+    <definedName name="uang_digit">Sheet1!$E$10</definedName>
+    <definedName name="uang_terbilang">Sheet1!$E$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>DINAS PENDIDIKAN, KEBUDAYAAN, KEPEMUDAAN DAN OLAH RAGA</t>
   </si>
@@ -184,6 +187,18 @@
   <si>
     <t>PEMERINTAH KABUPATEN SEMARANG</t>
   </si>
+  <si>
+    <t>PPN</t>
+  </si>
+  <si>
+    <t>PPH 21</t>
+  </si>
+  <si>
+    <t>PPH 23</t>
+  </si>
+  <si>
+    <t>SD ISLAM ISTIQOMAH - UNGARAN BARAT</t>
+  </si>
 </sst>
 </file>
 
@@ -201,14 +216,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,6 +260,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -400,58 +415,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,92 +475,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +909,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,647 +924,673 @@
     <col min="5" max="5" width="3.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.08984375" customWidth="1"/>
     <col min="7" max="7" width="21.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="1.6328125" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" customWidth="1"/>
     <col min="14" max="14" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" ht="4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="71" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="63" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="29" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="70" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="69">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84">
         <v>2019</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="8" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G5" s="49">
         <v>1</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="14" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="72" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="65" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="14" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="27" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="M10" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="53"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="59" t="s">
+      <c r="N10" s="79"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
-    </row>
-    <row r="12" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="65" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="68"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="83"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E18" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="68"/>
-    </row>
-    <row r="18" spans="1:14" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="32" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
+    </row>
+    <row r="19" spans="1:14" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H20" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19" t="s">
+      <c r="I20" s="53"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="37" t="s">
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16" t="s">
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="37" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="56" t="s">
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="54" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="55"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="7"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="42" t="s">
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="K16:N17"/>
-    <mergeCell ref="D4:E4"/>
+  <mergeCells count="29">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="K17:N18"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I13"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="G25:I25"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:N12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:N27"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I12"/>
-    <mergeCell ref="E13:I14"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="M11:N13"/>
+    <mergeCell ref="J11:K13"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B27:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>